--- a/attendance_data/MIT.xlsx
+++ b/attendance_data/MIT.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance_Record" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Student_ID</t>
+          <t>Roll Number</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/attendance_data/MIT.xlsx
+++ b/attendance_data/MIT.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,11 @@
           <t>22-04-2025</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -442,6 +447,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -452,6 +462,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -462,6 +477,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +492,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -482,6 +507,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +522,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -502,6 +537,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -512,6 +552,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -522,6 +567,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -532,6 +582,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -542,6 +597,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -552,6 +612,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -562,6 +627,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -572,6 +642,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -582,6 +657,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -592,6 +672,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -602,6 +687,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -612,6 +702,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -622,6 +717,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -632,6 +732,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -642,6 +747,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -652,6 +762,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -662,6 +777,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -672,6 +792,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -682,6 +807,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -692,6 +822,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -702,6 +837,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -712,6 +852,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -722,6 +867,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -732,6 +882,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -742,6 +897,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -752,6 +912,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -762,6 +927,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -772,6 +942,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -782,6 +957,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -792,6 +972,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -802,6 +987,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -812,6 +1002,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -822,6 +1017,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -832,6 +1032,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -842,6 +1047,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -852,6 +1062,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -862,6 +1077,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -872,6 +1092,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -882,6 +1107,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -892,6 +1122,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -902,6 +1137,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -912,6 +1152,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -922,6 +1167,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -932,6 +1182,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -942,6 +1197,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -952,6 +1212,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -962,6 +1227,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -972,6 +1242,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -982,6 +1257,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -992,6 +1272,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1002,6 +1287,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1012,6 +1302,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1022,6 +1317,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1032,6 +1332,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1042,6 +1347,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1052,6 +1362,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1062,6 +1377,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1072,6 +1392,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1082,6 +1407,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1092,6 +1422,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1102,6 +1437,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1112,6 +1452,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1122,6 +1467,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1132,6 +1482,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1142,6 +1497,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1152,6 +1512,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1162,6 +1527,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1172,6 +1542,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1182,6 +1557,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1192,6 +1572,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1202,6 +1587,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1212,6 +1602,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1222,6 +1617,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1232,6 +1632,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1242,6 +1647,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1252,6 +1662,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1262,6 +1677,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1272,6 +1692,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1282,6 +1707,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1292,6 +1722,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1302,6 +1737,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1312,6 +1752,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1322,6 +1767,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1332,6 +1782,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1342,6 +1797,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1352,6 +1812,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1362,6 +1827,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1372,6 +1842,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1382,6 +1857,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1392,6 +1872,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1402,6 +1887,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1412,6 +1902,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1422,12 +1917,22 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>A</t>
         </is>
